--- a/AAII_Financials/Quarterly/IMAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMAC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="92">
   <si>
     <t>IMAC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,57 +665,58 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -725,38 +726,44 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F8" s="3">
         <v>4400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>3800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>3300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>300</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
@@ -766,37 +773,43 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>200</v>
+      </c>
+      <c r="F9" s="3">
         <v>1000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>300</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
@@ -807,38 +820,44 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F10" s="3">
         <v>3400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>2900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>2400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>2800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>2200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -848,8 +867,14 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,8 +890,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -906,8 +933,14 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,8 +980,14 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -988,37 +1027,43 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E15" s="3">
         <v>400</v>
       </c>
       <c r="F15" s="3">
+        <v>400</v>
+      </c>
+      <c r="G15" s="3">
+        <v>400</v>
+      </c>
+      <c r="H15" s="3">
         <v>300</v>
-      </c>
-      <c r="G15" s="3">
-        <v>100</v>
-      </c>
-      <c r="H15" s="3">
-        <v>400</v>
       </c>
       <c r="I15" s="3">
         <v>100</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
+        <v>400</v>
+      </c>
+      <c r="K15" s="3">
+        <v>100</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
@@ -1029,8 +1074,14 @@
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1043,38 +1094,40 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F17" s="3">
         <v>6000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>5900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>4100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>4100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>3700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>900</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1084,38 +1137,44 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-2100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1125,8 +1184,14 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1142,8 +1207,10 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1151,29 +1218,29 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1183,38 +1250,44 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-1700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1100</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-800</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-800</v>
       </c>
       <c r="I21" s="3">
         <v>-800</v>
       </c>
       <c r="J21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,8 +1297,14 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1236,25 +1315,25 @@
         <v>100</v>
       </c>
       <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
         <v>700</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
@@ -1265,38 +1344,44 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2000</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-900</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-1300</v>
       </c>
       <c r="I23" s="3">
         <v>-900</v>
       </c>
       <c r="J23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1306,8 +1391,14 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1347,8 +1438,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1388,38 +1485,44 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2000</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-900</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-1300</v>
       </c>
       <c r="I26" s="3">
         <v>-900</v>
       </c>
       <c r="J26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1429,38 +1532,44 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1470,8 +1579,14 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1511,8 +1626,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1552,8 +1673,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1593,8 +1720,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1634,8 +1767,14 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1643,29 +1782,29 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1675,38 +1814,44 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,8 +1861,14 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1757,38 +1908,44 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1798,43 +1955,49 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1844,8 +2007,14 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1861,8 +2030,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1878,32 +2049,34 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>400</v>
+      </c>
+      <c r="F41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>3100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1919,8 +2092,14 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1960,31 +2139,37 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F43" s="3">
         <v>800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1100</v>
-      </c>
-      <c r="F43" s="3">
-        <v>700</v>
-      </c>
-      <c r="G43" s="3">
-        <v>300</v>
       </c>
       <c r="H43" s="3">
         <v>700</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+      <c r="I43" s="3">
+        <v>300</v>
+      </c>
+      <c r="J43" s="3">
+        <v>700</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -2001,8 +2186,14 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2042,31 +2233,37 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>900</v>
+      </c>
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>700</v>
-      </c>
-      <c r="F45" s="3">
-        <v>400</v>
-      </c>
-      <c r="G45" s="3">
-        <v>200</v>
       </c>
       <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+      <c r="I45" s="3">
+        <v>200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>400</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -2083,32 +2280,38 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F46" s="3">
         <v>2200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>4000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>4100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1400</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,8 +2327,14 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2165,32 +2374,38 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F48" s="3">
         <v>8300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>7600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>7200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>3300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>3400</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2206,31 +2421,37 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F49" s="3">
         <v>9500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>9700</v>
-      </c>
-      <c r="F49" s="3">
-        <v>6200</v>
-      </c>
-      <c r="G49" s="3">
-        <v>6300</v>
       </c>
       <c r="H49" s="3">
         <v>6200</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+      <c r="I49" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J49" s="3">
+        <v>6200</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2247,8 +2468,14 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2288,8 +2515,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2329,8 +2562,14 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2341,19 +2580,19 @@
         <v>1200</v>
       </c>
       <c r="F52" s="3">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="G52" s="3">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="H52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+      <c r="I52" s="3">
+        <v>800</v>
+      </c>
+      <c r="J52" s="3">
+        <v>400</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2370,8 +2609,14 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2411,32 +2656,38 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>20400</v>
+      </c>
+      <c r="F54" s="3">
         <v>21000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>22400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>18000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>11100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>11500</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2452,8 +2703,14 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2469,8 +2726,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2486,32 +2745,34 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F57" s="3">
         <v>2300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,32 +2788,38 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E58" s="3">
         <v>1500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G58" s="3">
         <v>1700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>3300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>4900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>4300</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2568,32 +2835,38 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F59" s="3">
         <v>2100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>7700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>8100</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2609,32 +2882,38 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F60" s="3">
         <v>5900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>6200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>6500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>13800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>13200</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,31 +2929,37 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>400</v>
+      </c>
+      <c r="E61" s="3">
         <v>2200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G61" s="3">
         <v>2100</v>
-      </c>
-      <c r="F61" s="3">
-        <v>400</v>
-      </c>
-      <c r="G61" s="3">
-        <v>400</v>
       </c>
       <c r="H61" s="3">
         <v>400</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2691,32 +2976,38 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F62" s="3">
         <v>5100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>4900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>4000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>800</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2732,8 +3023,14 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2773,8 +3070,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2814,8 +3117,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2855,32 +3164,38 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F66" s="3">
         <v>10700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>10800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>8800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>13400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>12800</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2896,8 +3211,14 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2913,8 +3234,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2954,8 +3277,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2995,8 +3324,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3036,8 +3371,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3077,32 +3418,38 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-8600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-7000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-5100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-3500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-2600</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3118,8 +3465,14 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3159,8 +3512,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3200,8 +3559,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3241,32 +3606,38 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F76" s="3">
         <v>10300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>11600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>9100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1400</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3282,8 +3653,14 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3323,43 +3700,49 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3369,38 +3752,44 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3410,8 +3799,14 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3427,37 +3822,39 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E83" s="3">
         <v>400</v>
       </c>
       <c r="F83" s="3">
+        <v>400</v>
+      </c>
+      <c r="G83" s="3">
+        <v>400</v>
+      </c>
+      <c r="H83" s="3">
         <v>300</v>
-      </c>
-      <c r="G83" s="3">
-        <v>100</v>
-      </c>
-      <c r="H83" s="3">
-        <v>400</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+        <v>400</v>
+      </c>
+      <c r="K83" s="3">
+        <v>100</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
@@ -3468,8 +3865,14 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3509,8 +3912,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3550,8 +3959,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3591,8 +4006,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3632,8 +4053,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3673,22 +4100,28 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-900</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-200</v>
       </c>
       <c r="H89" s="3">
         <v>-900</v>
@@ -3697,14 +4130,14 @@
         <v>-200</v>
       </c>
       <c r="J89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3714,8 +4147,14 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3731,38 +4170,40 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>800</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1200</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3772,8 +4213,14 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3813,8 +4260,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3854,38 +4307,44 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1300</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3895,8 +4354,14 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3912,8 +4377,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3953,8 +4420,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3994,8 +4467,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4035,8 +4514,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4076,38 +4561,44 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>3800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>2300</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4117,8 +4608,14 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4158,38 +4655,44 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>2900</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4197,6 +4700,12 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMAC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="92">
   <si>
     <t>IMAC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,61 +665,62 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -732,41 +733,44 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E8" s="3">
         <v>3300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>300</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
@@ -779,8 +783,11 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -788,31 +795,31 @@
         <v>400</v>
       </c>
       <c r="E9" s="3">
+        <v>400</v>
+      </c>
+      <c r="F9" s="3">
         <v>200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>300</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
       <c r="L9" s="3">
         <v>0</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
+      <c r="M9" s="3">
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
@@ -826,41 +833,44 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E10" s="3">
         <v>2900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>300</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
@@ -873,8 +883,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,8 +905,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -939,8 +953,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -986,31 +1003,34 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1033,8 +1053,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1042,7 +1065,7 @@
         <v>500</v>
       </c>
       <c r="E15" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F15" s="3">
         <v>400</v>
@@ -1051,22 +1074,22 @@
         <v>400</v>
       </c>
       <c r="H15" s="3">
+        <v>400</v>
+      </c>
+      <c r="I15" s="3">
         <v>300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>100</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
@@ -1080,8 +1103,11 @@
       <c r="Q15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1096,41 +1122,42 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5300</v>
+        <v>4400</v>
       </c>
       <c r="E17" s="3">
         <v>5300</v>
       </c>
       <c r="F17" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G17" s="3">
         <v>6000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5900</v>
-      </c>
-      <c r="H17" s="3">
-        <v>4100</v>
       </c>
       <c r="I17" s="3">
         <v>4100</v>
       </c>
       <c r="J17" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K17" s="3">
         <v>3700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>900</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1143,41 +1170,44 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1190,8 +1220,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1209,8 +1242,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1218,11 +1252,11 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1230,20 +1264,20 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1256,28 +1290,31 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1100</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-800</v>
       </c>
       <c r="J21" s="3">
         <v>-800</v>
@@ -1286,11 +1323,11 @@
         <v>-800</v>
       </c>
       <c r="L21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1303,8 +1340,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1321,13 +1361,13 @@
         <v>100</v>
       </c>
       <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
         <v>700</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1335,8 +1375,8 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
@@ -1350,41 +1390,44 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1397,8 +1440,11 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1444,8 +1490,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1491,41 +1540,44 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1538,41 +1590,44 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1585,8 +1640,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1632,8 +1690,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1679,8 +1740,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1726,8 +1790,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1773,8 +1840,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1782,11 +1852,11 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1794,20 +1864,20 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1820,41 +1890,44 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1867,8 +1940,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1914,41 +1990,44 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1961,46 +2040,49 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2013,8 +2095,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2032,8 +2117,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2051,34 +2137,35 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E41" s="3">
         <v>1300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3100</v>
-      </c>
-      <c r="I41" s="3">
-        <v>200</v>
       </c>
       <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
+      <c r="K41" s="3">
+        <v>200</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
@@ -2098,8 +2185,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2145,35 +2235,38 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E43" s="3">
         <v>1400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>700</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2192,8 +2285,11 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2239,35 +2335,38 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
         <v>800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,35 +2385,38 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E46" s="3">
         <v>3500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1400</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2333,8 +2435,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2380,35 +2485,38 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E48" s="3">
         <v>7300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3400</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2427,8 +2535,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2436,26 +2547,26 @@
         <v>9100</v>
       </c>
       <c r="E49" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F49" s="3">
         <v>9200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>9500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>9700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>6200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>6300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>6200</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2474,8 +2585,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2521,8 +2635,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2568,35 +2685,38 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>400</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2615,8 +2735,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2662,35 +2785,38 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E54" s="3">
         <v>21100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>20400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>21000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>22400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>18000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11500</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2709,8 +2835,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2728,8 +2857,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2747,35 +2877,36 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E57" s="3">
         <v>3300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,35 +2925,38 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E58" s="3">
         <v>4200</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1500</v>
       </c>
       <c r="F58" s="3">
         <v>1500</v>
       </c>
       <c r="G58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H58" s="3">
         <v>1700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4300</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2841,35 +2975,38 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2888,35 +3025,38 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E60" s="3">
         <v>9300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>13800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>13200</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2935,25 +3075,28 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E61" s="3">
         <v>400</v>
-      </c>
-      <c r="E61" s="3">
-        <v>2200</v>
       </c>
       <c r="F61" s="3">
         <v>2200</v>
       </c>
       <c r="G61" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H61" s="3">
         <v>2100</v>
-      </c>
-      <c r="H61" s="3">
-        <v>400</v>
       </c>
       <c r="I61" s="3">
         <v>400</v>
@@ -2962,7 +3105,7 @@
         <v>400</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -2982,34 +3125,37 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4200</v>
+        <v>3900</v>
       </c>
       <c r="E62" s="3">
         <v>4200</v>
       </c>
       <c r="F62" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G62" s="3">
         <v>5100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4000</v>
-      </c>
-      <c r="I62" s="3">
-        <v>800</v>
       </c>
       <c r="J62" s="3">
         <v>800</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
+      <c r="K62" s="3">
+        <v>800</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
@@ -3029,8 +3175,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3076,8 +3225,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3123,8 +3275,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3170,35 +3325,38 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E66" s="3">
         <v>11400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>13400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12800</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3217,8 +3375,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3236,8 +3397,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3283,8 +3445,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3330,8 +3495,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3377,8 +3545,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3424,35 +3595,38 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-11800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-10000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2600</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3645,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3518,8 +3695,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3565,8 +3745,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3612,35 +3795,38 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E76" s="3">
         <v>9700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1400</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3659,8 +3845,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3706,46 +3895,49 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3758,41 +3950,44 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3805,8 +4000,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3824,8 +4022,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3833,7 +4032,7 @@
         <v>500</v>
       </c>
       <c r="E83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F83" s="3">
         <v>400</v>
@@ -3842,22 +4041,22 @@
         <v>400</v>
       </c>
       <c r="H83" s="3">
+        <v>400</v>
+      </c>
+      <c r="I83" s="3">
         <v>300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
@@ -3871,8 +4070,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3918,8 +4120,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3965,8 +4170,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4012,8 +4220,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4059,8 +4270,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4106,41 +4320,44 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4153,8 +4370,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4172,8 +4392,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4181,31 +4402,31 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-500</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-300</v>
       </c>
       <c r="G91" s="3">
         <v>-300</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>800</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
-        <v>-1200</v>
+        <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>-1200</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>-1200</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
@@ -4219,8 +4440,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4266,8 +4490,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4313,8 +4540,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4322,32 +4552,32 @@
         <v>-200</v>
       </c>
       <c r="E94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-400</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-300</v>
       </c>
       <c r="G94" s="3">
         <v>-300</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1300</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4360,8 +4590,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4379,8 +4612,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4426,8 +4660,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4473,8 +4710,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4520,8 +4760,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4567,41 +4810,44 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E100" s="3">
         <v>2300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2300</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4614,8 +4860,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4661,41 +4910,44 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E102" s="3">
         <v>900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2900</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4706,6 +4958,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMAC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="92">
   <si>
     <t>IMAC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,65 +665,66 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -736,44 +737,47 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E8" s="3">
         <v>2600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>300</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
@@ -786,8 +790,11 @@
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -798,31 +805,31 @@
         <v>400</v>
       </c>
       <c r="F9" s="3">
+        <v>400</v>
+      </c>
+      <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>300</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
       <c r="M9" s="3">
         <v>0</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
+      <c r="N9" s="3">
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
@@ -836,44 +843,47 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E10" s="3">
         <v>2200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
@@ -886,8 +896,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -906,8 +919,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -956,8 +970,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1006,17 +1023,20 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1032,8 +1052,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1056,19 +1076,22 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E15" s="3">
         <v>500</v>
       </c>
       <c r="F15" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G15" s="3">
         <v>400</v>
@@ -1077,22 +1100,22 @@
         <v>400</v>
       </c>
       <c r="I15" s="3">
+        <v>400</v>
+      </c>
+      <c r="J15" s="3">
         <v>300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>100</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
@@ -1106,8 +1129,11 @@
       <c r="R15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1123,44 +1149,45 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E17" s="3">
         <v>4400</v>
-      </c>
-      <c r="E17" s="3">
-        <v>5300</v>
       </c>
       <c r="F17" s="3">
         <v>5300</v>
       </c>
       <c r="G17" s="3">
+        <v>5300</v>
+      </c>
+      <c r="H17" s="3">
         <v>6000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5900</v>
-      </c>
-      <c r="I17" s="3">
-        <v>4100</v>
       </c>
       <c r="J17" s="3">
         <v>4100</v>
       </c>
       <c r="K17" s="3">
+        <v>4100</v>
+      </c>
+      <c r="L17" s="3">
         <v>3700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>900</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1173,44 +1200,47 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1223,8 +1253,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1243,23 +1276,24 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1267,20 +1301,20 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1293,31 +1327,34 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1100</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-800</v>
       </c>
       <c r="K21" s="3">
         <v>-800</v>
@@ -1326,11 +1363,11 @@
         <v>-800</v>
       </c>
       <c r="M21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1343,8 +1380,11 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1364,13 +1404,13 @@
         <v>100</v>
       </c>
       <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
         <v>700</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1378,8 +1418,8 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
@@ -1393,44 +1433,47 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1443,8 +1486,11 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1493,8 +1539,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1543,44 +1592,47 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1593,44 +1645,47 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1643,8 +1698,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1693,8 +1751,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1743,8 +1804,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1793,8 +1857,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1843,23 +1910,26 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1867,20 +1937,20 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1893,44 +1963,47 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1943,8 +2016,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1993,44 +2069,47 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2043,49 +2122,52 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2180,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2118,8 +2203,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2138,37 +2224,38 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E41" s="3">
         <v>2800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3100</v>
-      </c>
-      <c r="J41" s="3">
-        <v>200</v>
       </c>
       <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
+      <c r="L41" s="3">
+        <v>200</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
@@ -2188,8 +2275,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2238,38 +2328,41 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E43" s="3">
         <v>1500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>700</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,8 +2381,11 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2338,38 +2434,41 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2388,38 +2487,41 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E46" s="3">
         <v>4900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1400</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2438,8 +2540,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2488,38 +2593,41 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E48" s="3">
         <v>6900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3400</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2538,38 +2646,41 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9100</v>
+        <v>8900</v>
       </c>
       <c r="E49" s="3">
         <v>9100</v>
       </c>
       <c r="F49" s="3">
+        <v>9100</v>
+      </c>
+      <c r="G49" s="3">
         <v>9200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>9500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>9700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>6200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>6300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6200</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2588,8 +2699,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2638,8 +2752,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2688,38 +2805,41 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>900</v>
+      </c>
+      <c r="E52" s="3">
         <v>1000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>400</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2738,8 +2858,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2788,38 +2911,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E54" s="3">
         <v>21900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>21100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>20400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>21000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>22400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>18000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11500</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2838,8 +2964,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2858,8 +2987,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2878,38 +3008,39 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E57" s="3">
         <v>2500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2928,38 +3059,41 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E58" s="3">
         <v>4600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4200</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1500</v>
       </c>
       <c r="G58" s="3">
         <v>1500</v>
       </c>
       <c r="H58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I58" s="3">
         <v>1700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4300</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2978,8 +3112,11 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2987,29 +3124,29 @@
         <v>1700</v>
       </c>
       <c r="E59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F59" s="3">
         <v>1800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8100</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3028,38 +3165,41 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E60" s="3">
         <v>8800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>13800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13200</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3078,28 +3218,31 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E61" s="3">
         <v>1300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>400</v>
-      </c>
-      <c r="F61" s="3">
-        <v>2200</v>
       </c>
       <c r="G61" s="3">
         <v>2200</v>
       </c>
       <c r="H61" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I61" s="3">
         <v>2100</v>
-      </c>
-      <c r="I61" s="3">
-        <v>400</v>
       </c>
       <c r="J61" s="3">
         <v>400</v>
@@ -3108,7 +3251,7 @@
         <v>400</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -3128,37 +3271,40 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E62" s="3">
         <v>3900</v>
-      </c>
-      <c r="E62" s="3">
-        <v>4200</v>
       </c>
       <c r="F62" s="3">
         <v>4200</v>
       </c>
       <c r="G62" s="3">
+        <v>4200</v>
+      </c>
+      <c r="H62" s="3">
         <v>5100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4000</v>
-      </c>
-      <c r="J62" s="3">
-        <v>800</v>
       </c>
       <c r="K62" s="3">
         <v>800</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
+      <c r="L62" s="3">
+        <v>800</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
@@ -3178,8 +3324,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3228,8 +3377,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3278,8 +3430,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3328,38 +3483,41 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E66" s="3">
         <v>11600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12800</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3378,8 +3536,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3398,8 +3559,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3448,8 +3610,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3498,8 +3663,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3548,8 +3716,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3598,38 +3769,41 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-11800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-10000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-8600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2600</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3648,8 +3822,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3698,8 +3875,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3748,8 +3928,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3798,38 +3981,41 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E76" s="3">
         <v>10300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1400</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3848,8 +4034,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3898,49 +4087,52 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3953,44 +4145,47 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4003,8 +4198,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4023,19 +4221,20 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E83" s="3">
         <v>500</v>
       </c>
       <c r="F83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G83" s="3">
         <v>400</v>
@@ -4044,22 +4243,22 @@
         <v>400</v>
       </c>
       <c r="I83" s="3">
+        <v>400</v>
+      </c>
+      <c r="J83" s="3">
         <v>300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
@@ -4073,8 +4272,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4123,8 +4325,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4173,8 +4378,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4223,8 +4431,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4273,8 +4484,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4323,44 +4537,47 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4373,8 +4590,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4393,8 +4613,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4405,31 +4626,31 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-500</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-300</v>
       </c>
       <c r="H91" s="3">
         <v>-300</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>800</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
-        <v>-1200</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3">
         <v>-1200</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
+      <c r="N91" s="3">
+        <v>-1200</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
@@ -4443,8 +4664,11 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4493,8 +4717,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4543,44 +4770,47 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
         <v>-200</v>
       </c>
       <c r="F94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G94" s="3">
         <v>-400</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-300</v>
       </c>
       <c r="H94" s="3">
         <v>-300</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1300</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4593,8 +4823,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4613,8 +4846,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4663,8 +4897,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4713,8 +4950,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4763,8 +5003,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4813,44 +5056,47 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>3600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2300</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4863,8 +5109,11 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4913,44 +5162,47 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E102" s="3">
         <v>1500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2900</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4961,6 +5213,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMAC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="92">
   <si>
     <t>IMAC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,69 +665,69 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
@@ -740,8 +740,11 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -749,38 +752,38 @@
         <v>3500</v>
       </c>
       <c r="E8" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F8" s="3">
         <v>2600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>300</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
@@ -793,8 +796,11 @@
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -808,31 +814,31 @@
         <v>400</v>
       </c>
       <c r="G9" s="3">
+        <v>400</v>
+      </c>
+      <c r="H9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>300</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
+      <c r="O9" s="3">
+        <v>0</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
@@ -846,8 +852,11 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -855,38 +864,38 @@
         <v>3100</v>
       </c>
       <c r="E10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F10" s="3">
         <v>2200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
@@ -899,8 +908,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -920,8 +932,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -973,8 +986,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1026,20 +1042,23 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1055,8 +1074,8 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1079,8 +1098,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1088,13 +1110,13 @@
         <v>400</v>
       </c>
       <c r="E15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F15" s="3">
         <v>500</v>
       </c>
       <c r="G15" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H15" s="3">
         <v>400</v>
@@ -1103,22 +1125,22 @@
         <v>400</v>
       </c>
       <c r="J15" s="3">
+        <v>400</v>
+      </c>
+      <c r="K15" s="3">
         <v>300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>100</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>3</v>
@@ -1132,8 +1154,11 @@
       <c r="S15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1150,47 +1175,48 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E17" s="3">
         <v>4800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4400</v>
-      </c>
-      <c r="F17" s="3">
-        <v>5300</v>
       </c>
       <c r="G17" s="3">
         <v>5300</v>
       </c>
       <c r="H17" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I17" s="3">
         <v>6000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5900</v>
-      </c>
-      <c r="J17" s="3">
-        <v>4100</v>
       </c>
       <c r="K17" s="3">
         <v>4100</v>
       </c>
       <c r="L17" s="3">
+        <v>4100</v>
+      </c>
+      <c r="M17" s="3">
         <v>3700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>900</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1203,47 +1229,50 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1256,8 +1285,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1277,26 +1309,27 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1304,20 +1337,20 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1330,34 +1363,37 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1100</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-800</v>
       </c>
       <c r="L21" s="3">
         <v>-800</v>
@@ -1366,11 +1402,11 @@
         <v>-800</v>
       </c>
       <c r="N21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1383,13 +1419,16 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
@@ -1407,13 +1446,13 @@
         <v>100</v>
       </c>
       <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
         <v>700</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1421,8 +1460,8 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
@@ -1436,47 +1475,50 @@
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1489,8 +1531,11 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1542,8 +1587,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1595,47 +1643,50 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1648,47 +1699,50 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1701,8 +1755,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1754,8 +1811,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1807,8 +1867,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1860,8 +1923,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1913,26 +1979,29 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1940,20 +2009,20 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1966,47 +2035,50 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,8 +2091,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2072,47 +2147,50 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,52 +2203,55 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2183,8 +2264,11 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2204,8 +2288,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2225,40 +2310,41 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E41" s="3">
         <v>1700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3100</v>
-      </c>
-      <c r="K41" s="3">
-        <v>200</v>
       </c>
       <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
+      <c r="M41" s="3">
+        <v>200</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
@@ -2278,8 +2364,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2331,41 +2420,44 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E43" s="3">
         <v>1400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>700</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2384,8 +2476,11 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2437,41 +2532,44 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2490,41 +2588,44 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E46" s="3">
         <v>3800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1400</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2543,8 +2644,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2596,41 +2700,44 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E48" s="3">
         <v>5800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3400</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,41 +2756,44 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E49" s="3">
         <v>8900</v>
-      </c>
-      <c r="E49" s="3">
-        <v>9100</v>
       </c>
       <c r="F49" s="3">
         <v>9100</v>
       </c>
       <c r="G49" s="3">
+        <v>9100</v>
+      </c>
+      <c r="H49" s="3">
         <v>9200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>9500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>9700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>6200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6200</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2702,8 +2812,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2755,8 +2868,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2808,41 +2924,44 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>700</v>
+      </c>
+      <c r="E52" s="3">
         <v>900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>400</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2861,8 +2980,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2914,41 +3036,44 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E54" s="3">
         <v>19400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>21900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>21100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>20400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>21000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>22400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>18000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11500</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2967,8 +3092,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2988,8 +3116,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3009,41 +3138,42 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E57" s="3">
         <v>2400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3062,41 +3192,44 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E58" s="3">
         <v>1900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1500</v>
       </c>
       <c r="H58" s="3">
         <v>1500</v>
       </c>
       <c r="I58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J58" s="3">
         <v>1700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4300</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3115,8 +3248,11 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3127,29 +3263,29 @@
         <v>1700</v>
       </c>
       <c r="F59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G59" s="3">
         <v>1800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8100</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3168,8 +3304,11 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3177,32 +3316,32 @@
         <v>6000</v>
       </c>
       <c r="E60" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F60" s="3">
         <v>8800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13200</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3221,31 +3360,34 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>400</v>
-      </c>
-      <c r="G61" s="3">
-        <v>2200</v>
       </c>
       <c r="H61" s="3">
         <v>2200</v>
       </c>
       <c r="I61" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J61" s="3">
         <v>2100</v>
-      </c>
-      <c r="J61" s="3">
-        <v>400</v>
       </c>
       <c r="K61" s="3">
         <v>400</v>
@@ -3254,7 +3396,7 @@
         <v>400</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -3274,40 +3416,43 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E62" s="3">
         <v>4100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3900</v>
-      </c>
-      <c r="F62" s="3">
-        <v>4200</v>
       </c>
       <c r="G62" s="3">
         <v>4200</v>
       </c>
       <c r="H62" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I62" s="3">
         <v>5100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4000</v>
-      </c>
-      <c r="K62" s="3">
-        <v>800</v>
       </c>
       <c r="L62" s="3">
         <v>800</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
+      <c r="M62" s="3">
+        <v>800</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
@@ -3327,8 +3472,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3380,8 +3528,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3433,8 +3584,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3486,41 +3640,44 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E66" s="3">
         <v>10500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12800</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3539,8 +3696,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3560,8 +3720,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3613,8 +3774,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3666,8 +3830,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3719,8 +3886,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3772,41 +3942,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-15200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-13800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-11800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2600</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3825,8 +3998,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3878,8 +4054,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3931,8 +4110,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3984,41 +4166,44 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E76" s="3">
         <v>8900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1400</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4037,8 +4222,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4090,52 +4278,55 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4148,47 +4339,50 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4201,8 +4395,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4222,8 +4419,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4231,13 +4429,13 @@
         <v>400</v>
       </c>
       <c r="E83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F83" s="3">
         <v>500</v>
       </c>
       <c r="G83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H83" s="3">
         <v>400</v>
@@ -4246,22 +4444,22 @@
         <v>400</v>
       </c>
       <c r="J83" s="3">
+        <v>400</v>
+      </c>
+      <c r="K83" s="3">
         <v>300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
@@ -4275,8 +4473,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4328,8 +4529,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4381,8 +4585,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4434,8 +4641,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4487,8 +4697,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4540,47 +4753,50 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4593,8 +4809,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4614,13 +4833,14 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4629,31 +4849,31 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-500</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-300</v>
       </c>
       <c r="I91" s="3">
         <v>-300</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>800</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
-        <v>-1200</v>
+        <v>0</v>
       </c>
       <c r="N91" s="3">
         <v>-1200</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
+      <c r="O91" s="3">
+        <v>-1200</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
@@ -4667,8 +4887,11 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4720,8 +4943,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4773,47 +4999,50 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
         <v>-200</v>
       </c>
       <c r="G94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H94" s="3">
         <v>-400</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-300</v>
       </c>
       <c r="I94" s="3">
         <v>-300</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1300</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4826,8 +5055,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4847,8 +5079,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4900,8 +5133,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4953,8 +5189,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5006,8 +5245,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5059,47 +5301,50 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2300</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5112,8 +5357,11 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5165,47 +5413,50 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2900</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5216,6 +5467,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMAC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="92">
   <si>
     <t>IMAC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,73 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
@@ -743,50 +744,53 @@
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>3500</v>
+        <v>3100</v>
       </c>
       <c r="E8" s="3">
         <v>3500</v>
       </c>
       <c r="F8" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G8" s="3">
         <v>2600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>300</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
@@ -799,13 +803,16 @@
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E9" s="3">
         <v>400</v>
@@ -817,31 +824,31 @@
         <v>400</v>
       </c>
       <c r="H9" s="3">
+        <v>400</v>
+      </c>
+      <c r="I9" s="3">
         <v>200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>300</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
       <c r="O9" s="3">
         <v>0</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
+      <c r="P9" s="3">
+        <v>0</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
@@ -855,50 +862,53 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>3100</v>
+        <v>2800</v>
       </c>
       <c r="E10" s="3">
         <v>3100</v>
       </c>
       <c r="F10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G10" s="3">
         <v>2200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
@@ -911,8 +921,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -933,8 +946,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,8 +1003,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1045,23 +1062,26 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1700</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1077,8 +1097,8 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1101,8 +1121,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1113,13 +1136,13 @@
         <v>400</v>
       </c>
       <c r="F15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G15" s="3">
         <v>500</v>
       </c>
       <c r="H15" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I15" s="3">
         <v>400</v>
@@ -1128,22 +1151,22 @@
         <v>400</v>
       </c>
       <c r="K15" s="3">
+        <v>400</v>
+      </c>
+      <c r="L15" s="3">
         <v>300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>100</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>3</v>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>3</v>
@@ -1157,8 +1180,11 @@
       <c r="T15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1176,50 +1202,51 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E17" s="3">
         <v>3300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4400</v>
-      </c>
-      <c r="G17" s="3">
-        <v>5300</v>
       </c>
       <c r="H17" s="3">
         <v>5300</v>
       </c>
       <c r="I17" s="3">
+        <v>5300</v>
+      </c>
+      <c r="J17" s="3">
         <v>6000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5900</v>
-      </c>
-      <c r="K17" s="3">
-        <v>4100</v>
       </c>
       <c r="L17" s="3">
         <v>4100</v>
       </c>
       <c r="M17" s="3">
+        <v>4100</v>
+      </c>
+      <c r="N17" s="3">
         <v>3700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>900</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1232,50 +1259,53 @@
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E18" s="3">
         <v>200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1288,8 +1318,11 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1310,8 +1343,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1319,20 +1353,20 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1340,20 +1374,20 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1366,37 +1400,40 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E21" s="3">
         <v>600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1100</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-800</v>
       </c>
       <c r="M21" s="3">
         <v>-800</v>
@@ -1405,11 +1442,11 @@
         <v>-800</v>
       </c>
       <c r="O21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1422,8 +1459,11 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1431,7 +1471,7 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
@@ -1449,13 +1489,13 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
         <v>700</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1463,8 +1503,8 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
@@ -1478,50 +1518,53 @@
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-2200</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1534,8 +1577,11 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1590,8 +1636,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1646,50 +1695,53 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-2200</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1702,50 +1754,53 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1758,8 +1813,11 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1814,8 +1872,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1870,8 +1931,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1926,8 +1990,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1982,8 +2049,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1991,20 +2061,20 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2012,20 +2082,20 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2038,50 +2108,53 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2094,8 +2167,11 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2150,50 +2226,53 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2206,55 +2285,58 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2267,8 +2349,11 @@
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2289,8 +2374,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2311,43 +2397,44 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E41" s="3">
         <v>2600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3100</v>
-      </c>
-      <c r="L41" s="3">
-        <v>200</v>
       </c>
       <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
+      <c r="N41" s="3">
+        <v>200</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
@@ -2367,8 +2454,11 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2423,44 +2513,47 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E43" s="3">
         <v>1500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>700</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2479,8 +2572,11 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2535,44 +2631,47 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>800</v>
+      </c>
+      <c r="E45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>400</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2591,44 +2690,47 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E46" s="3">
         <v>4800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1400</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2647,8 +2749,11 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2703,44 +2808,47 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E48" s="3">
         <v>5600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3400</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2759,44 +2867,47 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E49" s="3">
         <v>8700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>8900</v>
-      </c>
-      <c r="F49" s="3">
-        <v>9100</v>
       </c>
       <c r="G49" s="3">
         <v>9100</v>
       </c>
       <c r="H49" s="3">
+        <v>9100</v>
+      </c>
+      <c r="I49" s="3">
         <v>9200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>9500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>9700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6200</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2815,8 +2926,11 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2871,8 +2985,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2927,8 +3044,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2936,35 +3056,35 @@
         <v>700</v>
       </c>
       <c r="E52" s="3">
+        <v>700</v>
+      </c>
+      <c r="F52" s="3">
         <v>900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>400</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2983,8 +3103,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3039,44 +3162,47 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E54" s="3">
         <v>19700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>19400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>21900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>21100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>20400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>21000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>22400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>18000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11500</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,8 +3221,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3117,8 +3246,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3139,44 +3269,45 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>900</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3195,44 +3326,47 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E58" s="3">
         <v>2500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4200</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1500</v>
       </c>
       <c r="I58" s="3">
         <v>1500</v>
       </c>
       <c r="J58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K58" s="3">
         <v>1700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4300</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3251,13 +3385,16 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="E59" s="3">
         <v>1700</v>
@@ -3266,29 +3403,29 @@
         <v>1700</v>
       </c>
       <c r="G59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H59" s="3">
         <v>1800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3307,44 +3444,47 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6000</v>
+        <v>6600</v>
       </c>
       <c r="E60" s="3">
         <v>6000</v>
       </c>
       <c r="F60" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G60" s="3">
         <v>8800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>13200</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3363,34 +3503,37 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>200</v>
+      </c>
+      <c r="E61" s="3">
         <v>2000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>400</v>
-      </c>
-      <c r="H61" s="3">
-        <v>2200</v>
       </c>
       <c r="I61" s="3">
         <v>2200</v>
       </c>
       <c r="J61" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K61" s="3">
         <v>2100</v>
-      </c>
-      <c r="K61" s="3">
-        <v>400</v>
       </c>
       <c r="L61" s="3">
         <v>400</v>
@@ -3399,7 +3542,7 @@
         <v>400</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -3419,8 +3562,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3428,34 +3574,34 @@
         <v>4000</v>
       </c>
       <c r="E62" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F62" s="3">
         <v>4100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3900</v>
-      </c>
-      <c r="G62" s="3">
-        <v>4200</v>
       </c>
       <c r="H62" s="3">
         <v>4200</v>
       </c>
       <c r="I62" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J62" s="3">
         <v>5100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4000</v>
-      </c>
-      <c r="L62" s="3">
-        <v>800</v>
       </c>
       <c r="M62" s="3">
         <v>800</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
+      <c r="N62" s="3">
+        <v>800</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
@@ -3475,8 +3621,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3531,8 +3680,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3587,8 +3739,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3643,44 +3798,47 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E66" s="3">
         <v>9300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12800</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3699,8 +3857,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3721,8 +3882,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3777,8 +3939,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3833,8 +3998,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3889,8 +4057,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3945,44 +4116,47 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-15000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-15200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-13800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-11800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-10000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2600</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4001,8 +4175,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4057,8 +4234,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4113,8 +4293,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4169,44 +4352,47 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E76" s="3">
         <v>10400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1400</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4225,8 +4411,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4281,55 +4470,58 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4342,50 +4534,53 @@
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4398,8 +4593,11 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4420,8 +4618,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4432,13 +4631,13 @@
         <v>400</v>
       </c>
       <c r="F83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G83" s="3">
         <v>500</v>
       </c>
       <c r="H83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I83" s="3">
         <v>400</v>
@@ -4447,22 +4646,22 @@
         <v>400</v>
       </c>
       <c r="K83" s="3">
+        <v>400</v>
+      </c>
+      <c r="L83" s="3">
         <v>300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
@@ -4476,8 +4675,11 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4532,8 +4734,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4588,8 +4793,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4644,8 +4852,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4700,8 +4911,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4756,50 +4970,53 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4812,8 +5029,11 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4834,8 +5054,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4843,7 +5064,7 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -4852,31 +5073,31 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-500</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-300</v>
       </c>
       <c r="J91" s="3">
         <v>-300</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>800</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
-        <v>-1200</v>
+        <v>0</v>
       </c>
       <c r="O91" s="3">
         <v>-1200</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
+      <c r="P91" s="3">
+        <v>-1200</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
@@ -4890,8 +5111,11 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4946,8 +5170,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5002,50 +5229,53 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
         <v>-200</v>
       </c>
       <c r="H94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I94" s="3">
         <v>-400</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-300</v>
       </c>
       <c r="J94" s="3">
         <v>-300</v>
       </c>
       <c r="K94" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1300</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5058,8 +5288,11 @@
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5080,8 +5313,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5136,8 +5370,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5192,8 +5429,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5248,8 +5488,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5304,50 +5547,53 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E100" s="3">
         <v>3000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2300</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5360,8 +5606,11 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5416,50 +5665,53 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2900</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>400</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5470,6 +5722,9 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMAC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="92">
   <si>
     <t>IMAC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,76 +665,77 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
@@ -747,53 +748,56 @@
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E8" s="3">
         <v>3100</v>
-      </c>
-      <c r="E8" s="3">
-        <v>3500</v>
       </c>
       <c r="F8" s="3">
         <v>3500</v>
       </c>
       <c r="G8" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H8" s="3">
         <v>2600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>300</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
@@ -806,8 +810,11 @@
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -815,7 +822,7 @@
         <v>300</v>
       </c>
       <c r="E9" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F9" s="3">
         <v>400</v>
@@ -827,31 +834,31 @@
         <v>400</v>
       </c>
       <c r="I9" s="3">
+        <v>400</v>
+      </c>
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>300</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
       <c r="P9" s="3">
         <v>0</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
+      <c r="Q9" s="3">
+        <v>0</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
@@ -865,53 +872,56 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E10" s="3">
         <v>2800</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3100</v>
       </c>
       <c r="F10" s="3">
         <v>3100</v>
       </c>
       <c r="G10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H10" s="3">
         <v>2200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
@@ -924,8 +934,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -947,8 +960,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1006,8 +1020,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1065,26 +1082,29 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>-1700</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1100,8 +1120,8 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1124,8 +1144,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1139,13 +1162,13 @@
         <v>400</v>
       </c>
       <c r="G15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H15" s="3">
         <v>500</v>
       </c>
       <c r="I15" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J15" s="3">
         <v>400</v>
@@ -1154,22 +1177,22 @@
         <v>400</v>
       </c>
       <c r="L15" s="3">
+        <v>400</v>
+      </c>
+      <c r="M15" s="3">
         <v>300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>100</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>3</v>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>3</v>
@@ -1183,8 +1206,11 @@
       <c r="U15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1203,53 +1229,54 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E17" s="3">
         <v>5100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4400</v>
-      </c>
-      <c r="H17" s="3">
-        <v>5300</v>
       </c>
       <c r="I17" s="3">
         <v>5300</v>
       </c>
       <c r="J17" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K17" s="3">
         <v>6000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5900</v>
-      </c>
-      <c r="L17" s="3">
-        <v>4100</v>
       </c>
       <c r="M17" s="3">
         <v>4100</v>
       </c>
       <c r="N17" s="3">
+        <v>4100</v>
+      </c>
+      <c r="O17" s="3">
         <v>3700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>900</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1262,53 +1289,56 @@
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1321,8 +1351,11 @@
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1344,8 +1377,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1356,20 +1390,20 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1377,20 +1411,20 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1403,40 +1437,43 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1100</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-800</v>
       </c>
       <c r="N21" s="3">
         <v>-800</v>
@@ -1445,11 +1482,11 @@
         <v>-800</v>
       </c>
       <c r="P21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-600</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1462,19 +1499,22 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1492,13 +1532,13 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
         <v>700</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1506,8 +1546,8 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
@@ -1521,53 +1561,56 @@
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2200</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1580,8 +1623,11 @@
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1639,8 +1685,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1698,53 +1747,56 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2200</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1757,8 +1809,11 @@
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1766,44 +1821,44 @@
         <v>-2000</v>
       </c>
       <c r="E27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1816,8 +1871,11 @@
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1875,8 +1933,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1934,8 +1995,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1993,8 +2057,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2052,8 +2119,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2064,20 +2134,20 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2085,20 +2155,20 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2111,8 +2181,11 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2120,44 +2193,44 @@
         <v>-2000</v>
       </c>
       <c r="E33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2170,8 +2243,11 @@
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2229,8 +2305,11 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2238,44 +2317,44 @@
         <v>-2000</v>
       </c>
       <c r="E35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,58 +2367,61 @@
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2352,8 +2434,11 @@
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2375,8 +2460,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2398,46 +2484,47 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E41" s="3">
         <v>15600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3100</v>
-      </c>
-      <c r="M41" s="3">
-        <v>200</v>
       </c>
       <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
+      <c r="O41" s="3">
+        <v>200</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
@@ -2457,8 +2544,11 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2516,47 +2606,50 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E43" s="3">
         <v>1800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>700</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2575,8 +2668,11 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2634,47 +2730,50 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E45" s="3">
         <v>800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>400</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2693,47 +2792,50 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E46" s="3">
         <v>18300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1400</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2752,8 +2854,11 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2811,47 +2916,50 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E48" s="3">
         <v>5800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3400</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2870,47 +2978,50 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E49" s="3">
         <v>8900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>8700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>8900</v>
-      </c>
-      <c r="G49" s="3">
-        <v>9100</v>
       </c>
       <c r="H49" s="3">
         <v>9100</v>
       </c>
       <c r="I49" s="3">
+        <v>9100</v>
+      </c>
+      <c r="J49" s="3">
         <v>9200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>9500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6200</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2929,8 +3040,11 @@
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2988,8 +3102,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3047,47 +3164,50 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E52" s="3">
         <v>700</v>
       </c>
       <c r="F52" s="3">
+        <v>700</v>
+      </c>
+      <c r="G52" s="3">
         <v>900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>400</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3106,8 +3226,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3165,47 +3288,50 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E54" s="3">
         <v>33600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>19700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>19400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>21900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>21100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>20400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>21000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>22400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>18000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11500</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3224,8 +3350,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3247,8 +3376,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3270,47 +3400,48 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
         <v>2000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>900</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3329,47 +3460,50 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E58" s="3">
         <v>2600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4200</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1500</v>
       </c>
       <c r="J58" s="3">
         <v>1500</v>
       </c>
       <c r="K58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L58" s="3">
         <v>1700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4300</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3388,16 +3522,19 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E59" s="3">
         <v>2000</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1700</v>
       </c>
       <c r="F59" s="3">
         <v>1700</v>
@@ -3406,29 +3543,29 @@
         <v>1700</v>
       </c>
       <c r="H59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I59" s="3">
         <v>1800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8100</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3447,47 +3584,50 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E60" s="3">
         <v>6600</v>
-      </c>
-      <c r="E60" s="3">
-        <v>6000</v>
       </c>
       <c r="F60" s="3">
         <v>6000</v>
       </c>
       <c r="G60" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H60" s="3">
         <v>8800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>13800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>13200</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3506,8 +3646,11 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3515,28 +3658,28 @@
         <v>200</v>
       </c>
       <c r="E61" s="3">
+        <v>200</v>
+      </c>
+      <c r="F61" s="3">
         <v>2000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>400</v>
-      </c>
-      <c r="I61" s="3">
-        <v>2200</v>
       </c>
       <c r="J61" s="3">
         <v>2200</v>
       </c>
       <c r="K61" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L61" s="3">
         <v>2100</v>
-      </c>
-      <c r="L61" s="3">
-        <v>400</v>
       </c>
       <c r="M61" s="3">
         <v>400</v>
@@ -3545,7 +3688,7 @@
         <v>400</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -3565,46 +3708,49 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="E62" s="3">
         <v>4000</v>
       </c>
       <c r="F62" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G62" s="3">
         <v>4100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3900</v>
-      </c>
-      <c r="H62" s="3">
-        <v>4200</v>
       </c>
       <c r="I62" s="3">
         <v>4200</v>
       </c>
       <c r="J62" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K62" s="3">
         <v>5100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4000</v>
-      </c>
-      <c r="M62" s="3">
-        <v>800</v>
       </c>
       <c r="N62" s="3">
         <v>800</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
+      <c r="O62" s="3">
+        <v>800</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
@@ -3624,8 +3770,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3683,8 +3832,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3742,8 +3894,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3801,47 +3956,50 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E66" s="3">
         <v>7900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12800</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3860,8 +4018,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3883,8 +4044,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3942,8 +4104,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4001,8 +4166,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4060,8 +4228,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4119,47 +4290,50 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-17000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-15000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-15200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-13800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-11800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-10000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2600</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4178,8 +4352,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4237,8 +4414,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4296,8 +4476,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4355,47 +4538,50 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E76" s="3">
         <v>25700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1400</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4414,8 +4600,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4473,58 +4662,61 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4537,8 +4729,11 @@
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4546,44 +4741,44 @@
         <v>-2000</v>
       </c>
       <c r="E81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4596,8 +4791,11 @@
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4619,8 +4817,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4634,13 +4833,13 @@
         <v>400</v>
       </c>
       <c r="G83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H83" s="3">
         <v>500</v>
       </c>
       <c r="I83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J83" s="3">
         <v>400</v>
@@ -4649,22 +4848,22 @@
         <v>400</v>
       </c>
       <c r="L83" s="3">
+        <v>400</v>
+      </c>
+      <c r="M83" s="3">
         <v>300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
@@ -4678,8 +4877,11 @@
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4737,8 +4939,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4796,8 +5001,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4855,8 +5063,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4914,8 +5125,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4973,53 +5187,56 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-600</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5032,8 +5249,11 @@
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5055,19 +5275,20 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -5076,31 +5297,31 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-500</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-300</v>
       </c>
       <c r="K91" s="3">
         <v>-300</v>
       </c>
       <c r="L91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>800</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
-        <v>-1200</v>
+        <v>0</v>
       </c>
       <c r="P91" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
+      <c r="Q91" s="3">
+        <v>-1200</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
@@ -5114,8 +5335,11 @@
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5173,8 +5397,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5232,53 +5459,56 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
         <v>-200</v>
       </c>
       <c r="I94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J94" s="3">
         <v>-400</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-300</v>
       </c>
       <c r="K94" s="3">
         <v>-300</v>
       </c>
       <c r="L94" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5291,8 +5521,11 @@
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5314,8 +5547,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5373,8 +5607,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5432,8 +5669,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5491,8 +5731,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5550,53 +5793,56 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>900</v>
+      </c>
+      <c r="E100" s="3">
         <v>15400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2300</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5609,8 +5855,11 @@
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5668,53 +5917,56 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E102" s="3">
         <v>13000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2900</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>400</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5725,6 +5977,9 @@
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMAC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="92">
   <si>
     <t>IMAC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,80 +665,81 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
@@ -751,8 +752,11 @@
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -760,47 +764,47 @@
         <v>3500</v>
       </c>
       <c r="E8" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F8" s="3">
         <v>3100</v>
-      </c>
-      <c r="F8" s="3">
-        <v>3500</v>
       </c>
       <c r="G8" s="3">
         <v>3500</v>
       </c>
       <c r="H8" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I8" s="3">
         <v>2600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>300</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
@@ -813,19 +817,22 @@
       <c r="V8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E9" s="3">
         <v>300</v>
       </c>
       <c r="F9" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G9" s="3">
         <v>400</v>
@@ -837,31 +844,31 @@
         <v>400</v>
       </c>
       <c r="J9" s="3">
+        <v>400</v>
+      </c>
+      <c r="K9" s="3">
         <v>200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>300</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
       <c r="Q9" s="3">
         <v>0</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
+      <c r="R9" s="3">
+        <v>0</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
@@ -875,56 +882,59 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E10" s="3">
         <v>3200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2800</v>
-      </c>
-      <c r="F10" s="3">
-        <v>3100</v>
       </c>
       <c r="G10" s="3">
         <v>3100</v>
       </c>
       <c r="H10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I10" s="3">
         <v>2200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>300</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
@@ -937,8 +947,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -961,8 +974,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1023,8 +1037,11 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1085,29 +1102,32 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>-1700</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1123,8 +1143,8 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1147,13 +1167,16 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E15" s="3">
         <v>400</v>
@@ -1165,13 +1188,13 @@
         <v>400</v>
       </c>
       <c r="H15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I15" s="3">
         <v>500</v>
       </c>
       <c r="J15" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K15" s="3">
         <v>400</v>
@@ -1180,22 +1203,22 @@
         <v>400</v>
       </c>
       <c r="M15" s="3">
+        <v>400</v>
+      </c>
+      <c r="N15" s="3">
         <v>300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>100</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>3</v>
+      <c r="R15" s="3">
+        <v>0</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>3</v>
@@ -1209,8 +1232,11 @@
       <c r="V15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1230,56 +1256,57 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E17" s="3">
         <v>5900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4400</v>
-      </c>
-      <c r="I17" s="3">
-        <v>5300</v>
       </c>
       <c r="J17" s="3">
         <v>5300</v>
       </c>
       <c r="K17" s="3">
+        <v>5300</v>
+      </c>
+      <c r="L17" s="3">
         <v>6000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5900</v>
-      </c>
-      <c r="M17" s="3">
-        <v>4100</v>
       </c>
       <c r="N17" s="3">
         <v>4100</v>
       </c>
       <c r="O17" s="3">
+        <v>4100</v>
+      </c>
+      <c r="P17" s="3">
         <v>3700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>900</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1292,56 +1319,59 @@
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1354,8 +1384,11 @@
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1378,8 +1411,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1393,20 +1427,20 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1414,20 +1448,20 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1440,43 +1474,46 @@
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1100</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-800</v>
       </c>
       <c r="O21" s="3">
         <v>-800</v>
@@ -1485,11 +1522,11 @@
         <v>-800</v>
       </c>
       <c r="Q21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1502,8 +1539,11 @@
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1511,13 +1551,13 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1535,13 +1575,13 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
         <v>700</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1549,8 +1589,8 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
@@ -1564,56 +1604,59 @@
       <c r="V22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2200</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1626,8 +1669,11 @@
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1688,8 +1734,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1750,56 +1799,59 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2200</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-1500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1812,56 +1864,59 @@
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2000</v>
+        <v>-1700</v>
       </c>
       <c r="E27" s="3">
         <v>-2000</v>
       </c>
       <c r="F27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1874,8 +1929,11 @@
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1936,8 +1994,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1998,8 +2059,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2060,8 +2124,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2122,8 +2189,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2137,20 +2207,20 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2158,20 +2228,20 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2184,56 +2254,59 @@
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2000</v>
+        <v>-1700</v>
       </c>
       <c r="E33" s="3">
         <v>-2000</v>
       </c>
       <c r="F33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2246,8 +2319,11 @@
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2308,56 +2384,59 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2000</v>
+        <v>-1700</v>
       </c>
       <c r="E35" s="3">
         <v>-2000</v>
       </c>
       <c r="F35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,61 +2449,64 @@
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2437,8 +2519,11 @@
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2461,8 +2546,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2485,49 +2571,50 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E41" s="3">
         <v>13600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3100</v>
-      </c>
-      <c r="N41" s="3">
-        <v>200</v>
       </c>
       <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
+      <c r="P41" s="3">
+        <v>200</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
@@ -2547,8 +2634,11 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2609,50 +2699,53 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E43" s="3">
         <v>1300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>700</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2671,8 +2764,11 @@
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2733,50 +2829,53 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E45" s="3">
         <v>1300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>400</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,50 +2894,53 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E46" s="3">
         <v>16300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>18300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1400</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2857,8 +2959,11 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2919,50 +3024,53 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E48" s="3">
         <v>6900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3400</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2981,50 +3089,53 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E49" s="3">
         <v>8800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>8900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>8700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>8900</v>
-      </c>
-      <c r="H49" s="3">
-        <v>9100</v>
       </c>
       <c r="I49" s="3">
         <v>9100</v>
       </c>
       <c r="J49" s="3">
+        <v>9100</v>
+      </c>
+      <c r="K49" s="3">
         <v>9200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6200</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3043,8 +3154,11 @@
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3105,8 +3219,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3167,50 +3284,53 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>500</v>
+      </c>
+      <c r="E52" s="3">
         <v>600</v>
-      </c>
-      <c r="E52" s="3">
-        <v>700</v>
       </c>
       <c r="F52" s="3">
         <v>700</v>
       </c>
       <c r="G52" s="3">
+        <v>700</v>
+      </c>
+      <c r="H52" s="3">
         <v>900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>400</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3229,8 +3349,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3291,50 +3414,53 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E54" s="3">
         <v>32500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>33600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>19700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>19400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>21900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>21100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>20400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>21000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>22400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>18000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>11500</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3353,8 +3479,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3377,8 +3506,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3401,50 +3531,51 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>900</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3463,50 +3594,53 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E58" s="3">
         <v>1900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4200</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1500</v>
       </c>
       <c r="K58" s="3">
         <v>1500</v>
       </c>
       <c r="L58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M58" s="3">
         <v>1700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4300</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3525,19 +3659,22 @@
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E59" s="3">
         <v>2200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2000</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1700</v>
       </c>
       <c r="G59" s="3">
         <v>1700</v>
@@ -3546,29 +3683,29 @@
         <v>1700</v>
       </c>
       <c r="I59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J59" s="3">
         <v>1800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8100</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3587,8 +3724,11 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3596,41 +3736,41 @@
         <v>5400</v>
       </c>
       <c r="E60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F60" s="3">
         <v>6600</v>
-      </c>
-      <c r="F60" s="3">
-        <v>6000</v>
       </c>
       <c r="G60" s="3">
         <v>6000</v>
       </c>
       <c r="H60" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I60" s="3">
         <v>8800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>13800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>13200</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3649,8 +3789,11 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3661,28 +3804,28 @@
         <v>200</v>
       </c>
       <c r="F61" s="3">
+        <v>200</v>
+      </c>
+      <c r="G61" s="3">
         <v>2000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>400</v>
-      </c>
-      <c r="J61" s="3">
-        <v>2200</v>
       </c>
       <c r="K61" s="3">
         <v>2200</v>
       </c>
       <c r="L61" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M61" s="3">
         <v>2100</v>
-      </c>
-      <c r="M61" s="3">
-        <v>400</v>
       </c>
       <c r="N61" s="3">
         <v>400</v>
@@ -3691,7 +3834,7 @@
         <v>400</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
@@ -3711,49 +3854,52 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E62" s="3">
         <v>4500</v>
-      </c>
-      <c r="E62" s="3">
-        <v>4000</v>
       </c>
       <c r="F62" s="3">
         <v>4000</v>
       </c>
       <c r="G62" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H62" s="3">
         <v>4100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3900</v>
-      </c>
-      <c r="I62" s="3">
-        <v>4200</v>
       </c>
       <c r="J62" s="3">
         <v>4200</v>
       </c>
       <c r="K62" s="3">
+        <v>4200</v>
+      </c>
+      <c r="L62" s="3">
         <v>5100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4000</v>
-      </c>
-      <c r="N62" s="3">
-        <v>800</v>
       </c>
       <c r="O62" s="3">
         <v>800</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
+      <c r="P62" s="3">
+        <v>800</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
@@ -3773,8 +3919,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3835,8 +3984,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3897,8 +4049,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3959,50 +4114,53 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E66" s="3">
         <v>6800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12800</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4021,8 +4179,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4045,8 +4206,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4107,8 +4269,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4169,8 +4334,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4231,8 +4399,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4293,50 +4464,53 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-19000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-17000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-15000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-15200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-11800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2600</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4355,8 +4529,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4417,8 +4594,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4479,8 +4659,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4541,50 +4724,53 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E76" s="3">
         <v>25800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>25700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1400</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4603,8 +4789,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4665,61 +4854,64 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4732,56 +4924,59 @@
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2000</v>
+        <v>-1700</v>
       </c>
       <c r="E81" s="3">
         <v>-2000</v>
       </c>
       <c r="F81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4794,8 +4989,11 @@
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4818,13 +5016,14 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E83" s="3">
         <v>400</v>
@@ -4836,13 +5035,13 @@
         <v>400</v>
       </c>
       <c r="H83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I83" s="3">
         <v>500</v>
       </c>
       <c r="J83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K83" s="3">
         <v>400</v>
@@ -4851,22 +5050,22 @@
         <v>400</v>
       </c>
       <c r="M83" s="3">
+        <v>400</v>
+      </c>
+      <c r="N83" s="3">
         <v>300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
@@ -4880,8 +5079,11 @@
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4942,8 +5144,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5004,8 +5209,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5066,8 +5274,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5128,8 +5339,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5190,56 +5404,59 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-600</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5252,8 +5469,11 @@
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5276,22 +5496,23 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -5300,31 +5521,31 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-500</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-300</v>
       </c>
       <c r="L91" s="3">
         <v>-300</v>
       </c>
       <c r="M91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>800</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
-        <v>-1200</v>
+        <v>0</v>
       </c>
       <c r="Q91" s="3">
         <v>-1200</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
+      <c r="R91" s="3">
+        <v>-1200</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
@@ -5338,8 +5559,11 @@
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5400,8 +5624,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5462,56 +5689,59 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
         <v>-200</v>
       </c>
       <c r="J94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-400</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-300</v>
       </c>
       <c r="L94" s="3">
         <v>-300</v>
       </c>
       <c r="M94" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1300</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5524,8 +5754,11 @@
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5548,8 +5781,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5610,8 +5844,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5672,8 +5909,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5734,8 +5974,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5796,56 +6039,59 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E100" s="3">
         <v>900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>15400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2300</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5858,8 +6104,11 @@
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5920,56 +6169,59 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>13000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2900</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>400</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5980,6 +6232,9 @@
         <v>3</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMAC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="92">
   <si>
     <t>IMAC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,87 +665,88 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
@@ -755,62 +756,68 @@
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F8" s="3">
         <v>3500</v>
-      </c>
-      <c r="E8" s="3">
-        <v>3500</v>
-      </c>
-      <c r="F8" s="3">
-        <v>3100</v>
       </c>
       <c r="G8" s="3">
         <v>3500</v>
       </c>
       <c r="H8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I8" s="3">
         <v>3500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K8" s="3">
         <v>2600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>4200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>3300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>300</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
@@ -820,25 +827,31 @@
       <c r="W8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>600</v>
+      </c>
+      <c r="F9" s="3">
         <v>400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>300</v>
-      </c>
-      <c r="G9" s="3">
-        <v>400</v>
-      </c>
-      <c r="H9" s="3">
-        <v>400</v>
       </c>
       <c r="I9" s="3">
         <v>400</v>
@@ -847,34 +860,34 @@
         <v>400</v>
       </c>
       <c r="K9" s="3">
+        <v>400</v>
+      </c>
+      <c r="L9" s="3">
+        <v>400</v>
+      </c>
+      <c r="M9" s="3">
         <v>200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>300</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>3</v>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>3</v>
@@ -885,62 +898,68 @@
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F10" s="3">
         <v>3100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>3200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>2800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>3100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>3100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>2200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>4000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>3400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>2900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>2800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>2200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>300</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
@@ -950,8 +969,14 @@
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +1000,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1040,8 +1067,14 @@
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1105,8 +1138,14 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1120,20 +1159,20 @@
         <v>3</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
         <v>-1700</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1146,11 +1185,11 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1170,19 +1209,25 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>400</v>
+      </c>
+      <c r="E15" s="3">
+        <v>300</v>
+      </c>
+      <c r="F15" s="3">
         <v>500</v>
-      </c>
-      <c r="E15" s="3">
-        <v>400</v>
-      </c>
-      <c r="F15" s="3">
-        <v>400</v>
       </c>
       <c r="G15" s="3">
         <v>400</v>
@@ -1191,40 +1236,40 @@
         <v>400</v>
       </c>
       <c r="I15" s="3">
+        <v>400</v>
+      </c>
+      <c r="J15" s="3">
+        <v>400</v>
+      </c>
+      <c r="K15" s="3">
         <v>500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>500</v>
-      </c>
-      <c r="K15" s="3">
-        <v>400</v>
-      </c>
-      <c r="L15" s="3">
-        <v>400</v>
       </c>
       <c r="M15" s="3">
         <v>400</v>
       </c>
       <c r="N15" s="3">
+        <v>400</v>
+      </c>
+      <c r="O15" s="3">
+        <v>400</v>
+      </c>
+      <c r="P15" s="3">
         <v>300</v>
-      </c>
-      <c r="O15" s="3">
-        <v>100</v>
-      </c>
-      <c r="P15" s="3">
-        <v>400</v>
       </c>
       <c r="Q15" s="3">
         <v>100</v>
       </c>
       <c r="R15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>3</v>
+        <v>400</v>
+      </c>
+      <c r="S15" s="3">
+        <v>100</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>3</v>
@@ -1235,8 +1280,14 @@
       <c r="W15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1257,62 +1308,64 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F17" s="3">
         <v>6300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>5900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>5100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>3300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>4800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>4400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>5300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>5300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>6000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>5900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>4100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>4100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>900</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1322,62 +1375,68 @@
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G18" s="3">
         <v>-2400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-2000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-2100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1387,8 +1446,14 @@
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1412,8 +1477,10 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1430,44 +1497,44 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1477,62 +1544,68 @@
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-2000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-800</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-800</v>
       </c>
       <c r="Q21" s="3">
         <v>-800</v>
       </c>
       <c r="R21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="T21" s="3">
         <v>-600</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1542,28 +1615,34 @@
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
       </c>
       <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
-      </c>
-      <c r="H22" s="3">
-        <v>100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -1578,25 +1657,25 @@
         <v>100</v>
       </c>
       <c r="N22" s="3">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
+        <v>100</v>
+      </c>
+      <c r="P22" s="3">
         <v>700</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>3</v>
@@ -1607,62 +1686,68 @@
       <c r="W22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="G23" s="3">
         <v>-2500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2200</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-2200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2000</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-900</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-1300</v>
       </c>
       <c r="Q23" s="3">
         <v>-900</v>
       </c>
       <c r="R23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="S23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1672,8 +1757,14 @@
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1737,8 +1828,14 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1802,62 +1899,68 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="G26" s="3">
         <v>-2500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2200</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-2200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2000</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-900</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-1300</v>
       </c>
       <c r="Q26" s="3">
         <v>-900</v>
       </c>
       <c r="R26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="S26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1867,62 +1970,68 @@
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2000</v>
       </c>
-      <c r="G27" s="3">
-        <v>200</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J27" s="3">
         <v>-1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1932,8 +2041,14 @@
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1997,8 +2112,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2062,8 +2183,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2127,8 +2254,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2192,8 +2325,14 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2210,44 +2349,44 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2257,62 +2396,68 @@
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2000</v>
       </c>
-      <c r="G33" s="3">
-        <v>200</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J33" s="3">
         <v>-1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2322,8 +2467,14 @@
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2387,62 +2538,68 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2000</v>
       </c>
-      <c r="G35" s="3">
-        <v>200</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J35" s="3">
         <v>-1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2452,67 +2609,73 @@
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2522,8 +2685,14 @@
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2547,8 +2716,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2572,56 +2743,58 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F41" s="3">
         <v>11200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>13600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>15600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>3100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2637,8 +2810,14 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2702,25 +2881,31 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E43" s="3">
         <v>1200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G43" s="3">
         <v>1300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1800</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H43" s="3">
-        <v>1400</v>
       </c>
       <c r="I43" s="3">
         <v>1500</v>
@@ -2729,28 +2914,28 @@
         <v>1400</v>
       </c>
       <c r="K43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M43" s="3">
         <v>1300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1100</v>
-      </c>
-      <c r="N43" s="3">
-        <v>700</v>
-      </c>
-      <c r="O43" s="3">
-        <v>300</v>
       </c>
       <c r="P43" s="3">
         <v>700</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
+      <c r="Q43" s="3">
+        <v>300</v>
+      </c>
+      <c r="R43" s="3">
+        <v>700</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>3</v>
@@ -2767,8 +2952,14 @@
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2832,55 +3023,61 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>700</v>
+      </c>
+      <c r="F45" s="3">
         <v>1200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>800</v>
-      </c>
-      <c r="G45" s="3">
-        <v>600</v>
-      </c>
-      <c r="H45" s="3">
-        <v>700</v>
       </c>
       <c r="I45" s="3">
         <v>600</v>
       </c>
       <c r="J45" s="3">
+        <v>700</v>
+      </c>
+      <c r="K45" s="3">
+        <v>600</v>
+      </c>
+      <c r="L45" s="3">
         <v>800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>700</v>
-      </c>
-      <c r="N45" s="3">
-        <v>400</v>
-      </c>
-      <c r="O45" s="3">
-        <v>200</v>
       </c>
       <c r="P45" s="3">
         <v>400</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
+      <c r="Q45" s="3">
+        <v>200</v>
+      </c>
+      <c r="R45" s="3">
+        <v>400</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
@@ -2897,56 +3094,62 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F46" s="3">
         <v>13500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>16300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>18300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>4800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>3800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>4900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>4000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>4100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1400</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2962,8 +3165,14 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3027,56 +3236,62 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F48" s="3">
         <v>6600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>6900</v>
-      </c>
-      <c r="F48" s="3">
-        <v>5800</v>
-      </c>
-      <c r="G48" s="3">
-        <v>5600</v>
       </c>
       <c r="H48" s="3">
         <v>5800</v>
       </c>
       <c r="I48" s="3">
+        <v>5600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K48" s="3">
         <v>6900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>7300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>7400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>8300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>7600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>7200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>3300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>3400</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3092,55 +3307,61 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F49" s="3">
         <v>8500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>8800</v>
-      </c>
-      <c r="F49" s="3">
-        <v>8900</v>
-      </c>
-      <c r="G49" s="3">
-        <v>8700</v>
       </c>
       <c r="H49" s="3">
         <v>8900</v>
       </c>
       <c r="I49" s="3">
+        <v>8700</v>
+      </c>
+      <c r="J49" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K49" s="3">
         <v>9100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>9100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>9200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>9500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>9700</v>
-      </c>
-      <c r="N49" s="3">
-        <v>6200</v>
-      </c>
-      <c r="O49" s="3">
-        <v>6300</v>
       </c>
       <c r="P49" s="3">
         <v>6200</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R49" s="3" t="s">
-        <v>3</v>
+      <c r="Q49" s="3">
+        <v>6300</v>
+      </c>
+      <c r="R49" s="3">
+        <v>6200</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>3</v>
@@ -3157,8 +3378,14 @@
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3222,8 +3449,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3287,34 +3520,40 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>400</v>
+      </c>
+      <c r="F52" s="3">
         <v>500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1000</v>
-      </c>
-      <c r="J52" s="3">
-        <v>1100</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1200</v>
       </c>
       <c r="L52" s="3">
         <v>1100</v>
@@ -3323,19 +3562,19 @@
         <v>1200</v>
       </c>
       <c r="N52" s="3">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="O52" s="3">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="P52" s="3">
         <v>400</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
+      <c r="Q52" s="3">
+        <v>800</v>
+      </c>
+      <c r="R52" s="3">
+        <v>400</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
@@ -3352,8 +3591,14 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3417,56 +3662,62 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>27200</v>
+      </c>
+      <c r="F54" s="3">
         <v>29200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>32500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>33600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>19700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>19400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>21900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>21100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>20400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>21000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>22400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>18000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>11100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>11500</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3482,8 +3733,14 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3507,8 +3764,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3532,56 +3791,58 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F57" s="3">
         <v>1800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>900</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3597,56 +3858,62 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>300</v>
+      </c>
+      <c r="F58" s="3">
         <v>1100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>2500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>4600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>4200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>3300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>4900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>4300</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3662,56 +3929,62 @@
       <c r="W58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F59" s="3">
         <v>2500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2000</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1700</v>
       </c>
       <c r="I59" s="3">
         <v>1700</v>
       </c>
       <c r="J59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L59" s="3">
         <v>1800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>7700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>8100</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3727,56 +4000,62 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F60" s="3">
         <v>5400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>5400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>6600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>6000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>6000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>8800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>9300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>6100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>5900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>6200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>6500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>13800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>13200</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3792,55 +4071,61 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
         <v>200</v>
       </c>
       <c r="G61" s="3">
+        <v>200</v>
+      </c>
+      <c r="H61" s="3">
+        <v>200</v>
+      </c>
+      <c r="I61" s="3">
         <v>2000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2100</v>
-      </c>
-      <c r="N61" s="3">
-        <v>400</v>
-      </c>
-      <c r="O61" s="3">
-        <v>400</v>
       </c>
       <c r="P61" s="3">
         <v>400</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="R61" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="S61" s="3">
         <v>0</v>
@@ -3857,56 +4142,62 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F62" s="3">
         <v>4100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>4500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>4000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>4000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>4100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>3900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>4200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>4200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>5100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>4900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>4000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>800</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3922,8 +4213,14 @@
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3987,8 +4284,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4052,8 +4355,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4117,56 +4426,62 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F66" s="3">
         <v>5100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>6800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>7900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>9300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>10500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>11600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>11400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>10400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>10700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>10800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>8800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>13400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>12800</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4182,8 +4497,14 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4207,8 +4528,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4272,8 +4595,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4337,8 +4666,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4402,8 +4737,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4467,56 +4808,62 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-20800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-19000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-17000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-15000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-15200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-13800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-11800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-10000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-8600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-7000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-5100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-3500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4532,8 +4879,14 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4597,8 +4950,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4662,8 +5021,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4727,56 +5092,62 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>18000</v>
+      </c>
+      <c r="F76" s="3">
         <v>24100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>25800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>25700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>10400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>8900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>10300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>9700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>10000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>10300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>11600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>9100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-2300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4792,8 +5163,14 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4857,67 +5234,73 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4927,62 +5310,68 @@
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2000</v>
       </c>
-      <c r="G81" s="3">
-        <v>200</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J81" s="3">
         <v>-1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4992,8 +5381,14 @@
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5017,19 +5412,21 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>400</v>
+      </c>
+      <c r="E83" s="3">
+        <v>300</v>
+      </c>
+      <c r="F83" s="3">
         <v>500</v>
-      </c>
-      <c r="E83" s="3">
-        <v>400</v>
-      </c>
-      <c r="F83" s="3">
-        <v>400</v>
       </c>
       <c r="G83" s="3">
         <v>400</v>
@@ -5038,40 +5435,40 @@
         <v>400</v>
       </c>
       <c r="I83" s="3">
+        <v>400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>400</v>
+      </c>
+      <c r="K83" s="3">
         <v>500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>500</v>
-      </c>
-      <c r="K83" s="3">
-        <v>400</v>
-      </c>
-      <c r="L83" s="3">
-        <v>400</v>
       </c>
       <c r="M83" s="3">
         <v>400</v>
       </c>
       <c r="N83" s="3">
+        <v>400</v>
+      </c>
+      <c r="O83" s="3">
+        <v>400</v>
+      </c>
+      <c r="P83" s="3">
         <v>300</v>
-      </c>
-      <c r="O83" s="3">
-        <v>100</v>
-      </c>
-      <c r="P83" s="3">
-        <v>400</v>
       </c>
       <c r="Q83" s="3">
         <v>100</v>
       </c>
       <c r="R83" s="3">
-        <v>0</v>
-      </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
+        <v>400</v>
+      </c>
+      <c r="S83" s="3">
+        <v>100</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
@@ -5082,8 +5479,14 @@
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5147,8 +5550,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5212,8 +5621,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5277,8 +5692,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5342,8 +5763,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5407,46 +5834,52 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-2600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-2000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-800</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-900</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-200</v>
       </c>
       <c r="P89" s="3">
         <v>-900</v>
@@ -5455,14 +5888,14 @@
         <v>-200</v>
       </c>
       <c r="R89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="S89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T89" s="3">
         <v>-600</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5472,8 +5905,14 @@
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5497,62 +5936,64 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>800</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-1200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-1200</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5562,8 +6003,14 @@
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5627,8 +6074,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5692,62 +6145,68 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-1000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-1300</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5757,8 +6216,14 @@
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5782,8 +6247,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5847,8 +6314,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5912,8 +6385,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5977,8 +6456,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6042,62 +6527,68 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G100" s="3">
         <v>900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>15400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>3000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>3600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>2300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>3800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>2300</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
@@ -6107,8 +6598,14 @@
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6172,62 +6669,68 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-2000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>13000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>2900</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>400</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
@@ -6235,6 +6738,12 @@
         <v>3</v>
       </c>
       <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
